--- a/HARDWARE/BOM.xlsx
+++ b/HARDWARE/BOM.xlsx
@@ -10,8 +10,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B16">
+      <text>
+        <t xml:space="preserve">see if we can find it on amazon
+	-Sina Booeshaghi</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Fraction Collector</t>
   </si>
@@ -167,6 +183,12 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/9271k583</t>
+  </si>
+  <si>
+    <t>Alternative:</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Torsion-Spring-Deg-0-484OD-PK6/dp/B00VA0ON16/ref=pd_sim_nf_328_2/139-0628258-8398847?_encoding=UTF8&amp;pd_rd_i=B00VA0ON16&amp;pd_rd_r=79c104d5-80ca-4786-b077-338ec3d82517&amp;pd_rd_w=AwpIU&amp;pd_rd_wg=nnFJJ&amp;pf_rd_p=90765e8c-a52e-4c61-b338-0577ef37d819&amp;pf_rd_r=TMR9SSTFYY3HJQX7RE9K&amp;psc=1&amp;refRID=TMR9SSTFYY3HJQX7RE9K</t>
   </si>
   <si>
     <t>M3 Hex Screws and Nuts</t>
@@ -1090,13 +1112,19 @@
       <c r="K16" s="20" t="s">
         <v>51</v>
       </c>
+      <c r="M16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="9">
         <v>14.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="11">
         <v>10.59</v>
@@ -1122,10 +1150,10 @@
         <v>13</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1133,7 +1161,7 @@
         <v>15.0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="11">
         <v>9.99</v>
@@ -1159,10 +1187,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1170,37 +1198,39 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J4"/>
-    <hyperlink r:id="rId2" ref="K4"/>
-    <hyperlink r:id="rId3" ref="J5"/>
-    <hyperlink r:id="rId4" ref="K5"/>
-    <hyperlink r:id="rId5" ref="J6"/>
-    <hyperlink r:id="rId6" ref="K6"/>
-    <hyperlink r:id="rId7" ref="J7"/>
-    <hyperlink r:id="rId8" ref="K7"/>
-    <hyperlink r:id="rId9" ref="J8"/>
-    <hyperlink r:id="rId10" ref="K8"/>
-    <hyperlink r:id="rId11" ref="J9"/>
-    <hyperlink r:id="rId12" ref="K9"/>
-    <hyperlink r:id="rId13" ref="J10"/>
-    <hyperlink r:id="rId14" ref="K10"/>
-    <hyperlink r:id="rId15" ref="J11"/>
-    <hyperlink r:id="rId16" ref="K11"/>
-    <hyperlink r:id="rId17" ref="J12"/>
-    <hyperlink r:id="rId18" ref="K12"/>
-    <hyperlink r:id="rId19" ref="J13"/>
-    <hyperlink r:id="rId20" ref="K13"/>
-    <hyperlink r:id="rId21" ref="J14"/>
-    <hyperlink r:id="rId22" ref="K14"/>
-    <hyperlink r:id="rId23" ref="J15"/>
-    <hyperlink r:id="rId24" ref="K15"/>
-    <hyperlink r:id="rId25" ref="J16"/>
-    <hyperlink r:id="rId26" ref="K16"/>
-    <hyperlink r:id="rId27" ref="J17"/>
-    <hyperlink r:id="rId28" ref="K17"/>
-    <hyperlink r:id="rId29" ref="J18"/>
-    <hyperlink r:id="rId30" ref="K18"/>
+    <hyperlink r:id="rId2" ref="J4"/>
+    <hyperlink r:id="rId3" ref="K4"/>
+    <hyperlink r:id="rId4" ref="J5"/>
+    <hyperlink r:id="rId5" ref="K5"/>
+    <hyperlink r:id="rId6" ref="J6"/>
+    <hyperlink r:id="rId7" ref="K6"/>
+    <hyperlink r:id="rId8" ref="J7"/>
+    <hyperlink r:id="rId9" ref="K7"/>
+    <hyperlink r:id="rId10" ref="J8"/>
+    <hyperlink r:id="rId11" ref="K8"/>
+    <hyperlink r:id="rId12" ref="J9"/>
+    <hyperlink r:id="rId13" ref="K9"/>
+    <hyperlink r:id="rId14" ref="J10"/>
+    <hyperlink r:id="rId15" ref="K10"/>
+    <hyperlink r:id="rId16" ref="J11"/>
+    <hyperlink r:id="rId17" ref="K11"/>
+    <hyperlink r:id="rId18" ref="J12"/>
+    <hyperlink r:id="rId19" ref="K12"/>
+    <hyperlink r:id="rId20" ref="J13"/>
+    <hyperlink r:id="rId21" ref="K13"/>
+    <hyperlink r:id="rId22" ref="J14"/>
+    <hyperlink r:id="rId23" ref="K14"/>
+    <hyperlink r:id="rId24" ref="J15"/>
+    <hyperlink r:id="rId25" ref="K15"/>
+    <hyperlink r:id="rId26" ref="J16"/>
+    <hyperlink r:id="rId27" ref="K16"/>
+    <hyperlink r:id="rId28" ref="N16"/>
+    <hyperlink r:id="rId29" ref="J17"/>
+    <hyperlink r:id="rId30" ref="K17"/>
+    <hyperlink r:id="rId31" ref="J18"/>
+    <hyperlink r:id="rId32" ref="K18"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId33"/>
+  <legacyDrawing r:id="rId34"/>
 </worksheet>
 </file>
--- a/HARDWARE/BOM.xlsx
+++ b/HARDWARE/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Fraction Collector</t>
   </si>
@@ -188,7 +188,13 @@
     <t>Alternative:</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Torsion-Spring-Deg-0-484OD-PK6/dp/B00VA0ON16/ref=pd_sim_nf_328_2/139-0628258-8398847?_encoding=UTF8&amp;pd_rd_i=B00VA0ON16&amp;pd_rd_r=79c104d5-80ca-4786-b077-338ec3d82517&amp;pd_rd_w=AwpIU&amp;pd_rd_wg=nnFJJ&amp;pf_rd_p=90765e8c-a52e-4c61-b338-0577ef37d819&amp;pf_rd_r=TMR9SSTFYY3HJQX7RE9K&amp;psc=1&amp;refRID=TMR9SSTFYY3HJQX7RE9K</t>
+    <t>https://www.amazon.com/dp/B08QN9J157/?coliid=I3IYCJKLM9FWPB&amp;colid=25Z106AEL5JI8&amp;ref_=lv_ov_lig_dp_it&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08QNB4M6K/?coliid=I3IYCJKLM9FWPB&amp;colid=25Z106AEL5JI8&amp;ref_=lv_ov_lig_dp_it&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08QN8B9CV/?coliid=I3IYCJKLM9FWPB&amp;colid=25Z106AEL5JI8&amp;ref_=lv_ov_lig_dp_it&amp;th=1</t>
   </si>
   <si>
     <t>M3 Hex Screws and Nuts</t>
@@ -1118,13 +1124,19 @@
       <c r="N16" s="20" t="s">
         <v>53</v>
       </c>
+      <c r="O16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="9">
         <v>14.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="11">
         <v>10.59</v>
@@ -1150,10 +1162,10 @@
         <v>13</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -1161,7 +1173,7 @@
         <v>15.0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="11">
         <v>9.99</v>
@@ -1187,10 +1199,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1225,12 +1237,14 @@
     <hyperlink r:id="rId26" ref="J16"/>
     <hyperlink r:id="rId27" ref="K16"/>
     <hyperlink r:id="rId28" ref="N16"/>
-    <hyperlink r:id="rId29" ref="J17"/>
-    <hyperlink r:id="rId30" ref="K17"/>
-    <hyperlink r:id="rId31" ref="J18"/>
-    <hyperlink r:id="rId32" ref="K18"/>
+    <hyperlink r:id="rId29" ref="O16"/>
+    <hyperlink r:id="rId30" ref="P16"/>
+    <hyperlink r:id="rId31" ref="J17"/>
+    <hyperlink r:id="rId32" ref="K17"/>
+    <hyperlink r:id="rId33" ref="J18"/>
+    <hyperlink r:id="rId34" ref="K18"/>
   </hyperlinks>
-  <drawing r:id="rId33"/>
-  <legacyDrawing r:id="rId34"/>
+  <drawing r:id="rId35"/>
+  <legacyDrawing r:id="rId36"/>
 </worksheet>
 </file>
--- a/HARDWARE/BOM.xlsx
+++ b/HARDWARE/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Fraction Collector</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>https://www.amazon.com/DYWISHKEY-Pieces-Stainless-Steel-Socket/dp/B07X3RX915/ref=sr_1_10?keywords=m5+hex+screws&amp;qid=1574926879&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>M3 Washers</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3rVEjTX</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -274,6 +280,7 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -300,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -363,6 +370,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1099,14 +1109,14 @@
         <v>6.0</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" ref="F16:F18" si="1">C16/E16</f>
+        <f t="shared" ref="F16:F19" si="1">C16/E16</f>
         <v>0.7716666667</v>
       </c>
       <c r="G16" s="18">
         <v>1.0</v>
       </c>
       <c r="H16" s="19">
-        <f t="shared" ref="H16:H18" si="2">F16*G16</f>
+        <f t="shared" ref="H16:H19" si="2">F16*G16</f>
         <v>0.7716666667</v>
       </c>
       <c r="I16" s="18" t="s">
@@ -1203,6 +1213,40 @@
       </c>
       <c r="K18" s="20" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="22">
+        <v>16.0</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="18">
+        <v>8.49</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>300.0</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
+        <v>0.0283</v>
+      </c>
+      <c r="G19" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="2"/>
+        <v>0.1132</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1243,8 +1287,9 @@
     <hyperlink r:id="rId32" ref="K17"/>
     <hyperlink r:id="rId33" ref="J18"/>
     <hyperlink r:id="rId34" ref="K18"/>
+    <hyperlink r:id="rId35" ref="J19"/>
   </hyperlinks>
-  <drawing r:id="rId35"/>
-  <legacyDrawing r:id="rId36"/>
+  <drawing r:id="rId36"/>
+  <legacyDrawing r:id="rId37"/>
 </worksheet>
 </file>
--- a/HARDWARE/BOM.xlsx
+++ b/HARDWARE/BOM.xlsx
@@ -10,24 +10,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="B16">
-      <text>
-        <t xml:space="preserve">see if we can find it on amazon
-	-Sina Booeshaghi</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>Fraction Collector</t>
   </si>
@@ -77,10 +61,10 @@
     <t>https://www.amazon.com/Kastar-AC-Adapter-Power-LCD/dp/B003TUMDWG/ref=sr_1_14?s=electronics&amp;ie=UTF8&amp;qid=1516278773&amp;sr=1-14&amp;keywords=12v+psu</t>
   </si>
   <si>
-    <t>Arduino + CNC Shield Pack</t>
-  </si>
-  <si>
-    <t>https://amzn.to/35Ka7zf</t>
+    <t>Arduino + CNC Shield + DRV 8825 Pack</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3t1zWHC</t>
   </si>
   <si>
     <t>https://www.amazon.com/Longruner-Expansion-Stepper-Heatsink-Arduino/dp/B06XJKVLG3/ref=sr_1_15?ie=UTF8&amp;qid=1513739295&amp;sr=8-15&amp;keywords=arduino+cnc+shield</t>
@@ -219,6 +203,12 @@
   </si>
   <si>
     <t>https://amzn.to/3rVEjTX</t>
+  </si>
+  <si>
+    <t>6mm Flange Coupling</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2YfLFEj</t>
   </si>
 </sst>
 </file>
@@ -259,12 +249,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -307,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -332,9 +321,6 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -347,8 +333,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -623,8 +615,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <f>sum(H4:H18)</f>
-        <v>71.36951158</v>
+        <f>sum(H4:H20)</f>
+        <v>67.01535075</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -646,7 +638,7 @@
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -672,546 +664,569 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>15.0</v>
       </c>
-      <c r="D4" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="D4" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F20" si="1">C4*D4/E4</f>
+        <v>15</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:H20" si="2">G4*F4</f>
+        <v>15</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14">
+        <v>19.88</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="1"/>
+        <v>19.88</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="2"/>
+        <v>4.97</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10">
+        <v>13.99</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="1"/>
+        <v>13.99</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="2"/>
+        <v>13.99</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10">
+        <v>6.96</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="1"/>
+        <v>3.48</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="2"/>
+        <v>6.96</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6.07</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
+        <v>0.607</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.428</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10">
+        <v>7.99</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="1"/>
+        <v>0.799</v>
+      </c>
+      <c r="G9" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="2"/>
+        <v>3.196</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="10">
+        <v>21.0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="2"/>
+        <v>5.25</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="10">
+        <v>7.98</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
+        <v>1.596</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="2"/>
+        <v>1.596</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="10">
+        <v>8.98</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
+        <v>1.796</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="2"/>
+        <v>1.796</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10">
+        <v>11.99</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>1.199</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="2"/>
+        <v>1.199</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10">
+        <v>13.89</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
+        <v>0.1262727273</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.3788181818</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="10">
+        <v>9.99</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.999</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="2"/>
+        <v>4.995</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="19">
+        <v>4.63</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="1"/>
+        <v>0.7716666667</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7716666667</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="10">
+        <v>10.59</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>310.0</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.03416129032</v>
+      </c>
+      <c r="G17" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="2"/>
+        <v>0.3074516129</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="22">
         <v>15.0</v>
       </c>
-      <c r="G4" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="11">
-        <v>18.88</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>18.88</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="H5" s="12">
-        <v>6.2304</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="11">
-        <v>13.99</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>13.99</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>13.99</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="11">
-        <v>6.96</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>3.48</v>
-      </c>
-      <c r="G7" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>6.96</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="11">
-        <v>6.07</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.607</v>
-      </c>
-      <c r="G8" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>2.428</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="11">
-        <v>7.99</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.799</v>
-      </c>
-      <c r="G9" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>3.995</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="11">
-        <v>21.0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>5.25</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>10.5</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9">
+      <c r="B18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="10">
+        <v>9.99</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>70.0</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.1427142857</v>
+      </c>
+      <c r="G18" s="14">
         <v>8.0</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="11">
-        <v>7.98</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1.596</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1.596</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="11">
-        <v>8.98</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1.796</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1.796</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="11">
-        <v>11.99</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1.199</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1.199</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="11">
-        <v>13.89</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>110.0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0.126272727</v>
-      </c>
-      <c r="G14" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="H14" s="12">
-        <f>F14*G14</f>
-        <v>0.378818181</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="11">
-        <v>9.99</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0.999</v>
-      </c>
-      <c r="G15" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="H15" s="12">
-        <v>4.995</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9">
-        <v>13.0</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="18">
-        <v>4.63</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="F16" s="19">
-        <f t="shared" ref="F16:F19" si="1">C16/E16</f>
-        <v>0.7716666667</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="H16" s="19">
-        <f t="shared" ref="H16:H19" si="2">F16*G16</f>
-        <v>0.7716666667</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9">
-        <v>14.0</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="11">
-        <v>10.59</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>310.0</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="1"/>
-        <v>0.03416129032</v>
-      </c>
-      <c r="G17" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="H17" s="12">
-        <f t="shared" si="2"/>
-        <v>0.102483871</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="21">
-        <v>15.0</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="11">
-        <v>9.99</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="11">
-        <v>70.0</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" si="1"/>
-        <v>0.1427142857</v>
-      </c>
-      <c r="G18" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="H18" s="12">
-        <f t="shared" si="2"/>
-        <v>1.427142857</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="20" t="s">
+      <c r="H18" s="11">
+        <f t="shared" si="2"/>
+        <v>1.141714286</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1219,34 +1234,68 @@
       <c r="A19" s="22">
         <v>16.0</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="19">
         <v>8.49</v>
       </c>
-      <c r="D19" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="19">
         <v>300.0</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="20">
         <f t="shared" si="1"/>
         <v>0.0283</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>4.0</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="11">
         <f t="shared" si="2"/>
         <v>0.1132</v>
       </c>
-      <c r="I19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="20" t="s">
+      <c r="I19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="21" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="23">
+        <v>17.0</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="19">
+        <v>11.69</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9225</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="2"/>
+        <v>2.9225</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1254,42 +1303,42 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="J4"/>
-    <hyperlink r:id="rId3" ref="K4"/>
-    <hyperlink r:id="rId4" ref="J5"/>
-    <hyperlink r:id="rId5" ref="K5"/>
-    <hyperlink r:id="rId6" ref="J6"/>
-    <hyperlink r:id="rId7" ref="K6"/>
-    <hyperlink r:id="rId8" ref="J7"/>
-    <hyperlink r:id="rId9" ref="K7"/>
-    <hyperlink r:id="rId10" ref="J8"/>
-    <hyperlink r:id="rId11" ref="K8"/>
-    <hyperlink r:id="rId12" ref="J9"/>
-    <hyperlink r:id="rId13" ref="K9"/>
-    <hyperlink r:id="rId14" ref="J10"/>
-    <hyperlink r:id="rId15" ref="K10"/>
-    <hyperlink r:id="rId16" ref="J11"/>
-    <hyperlink r:id="rId17" ref="K11"/>
-    <hyperlink r:id="rId18" ref="J12"/>
-    <hyperlink r:id="rId19" ref="K12"/>
-    <hyperlink r:id="rId20" ref="J13"/>
-    <hyperlink r:id="rId21" ref="K13"/>
-    <hyperlink r:id="rId22" ref="J14"/>
-    <hyperlink r:id="rId23" ref="K14"/>
-    <hyperlink r:id="rId24" ref="J15"/>
-    <hyperlink r:id="rId25" ref="K15"/>
-    <hyperlink r:id="rId26" ref="J16"/>
-    <hyperlink r:id="rId27" ref="K16"/>
-    <hyperlink r:id="rId28" ref="N16"/>
-    <hyperlink r:id="rId29" ref="O16"/>
-    <hyperlink r:id="rId30" ref="P16"/>
-    <hyperlink r:id="rId31" ref="J17"/>
-    <hyperlink r:id="rId32" ref="K17"/>
-    <hyperlink r:id="rId33" ref="J18"/>
-    <hyperlink r:id="rId34" ref="K18"/>
-    <hyperlink r:id="rId35" ref="J19"/>
+    <hyperlink r:id="rId1" ref="J4"/>
+    <hyperlink r:id="rId2" ref="K4"/>
+    <hyperlink r:id="rId3" ref="J5"/>
+    <hyperlink r:id="rId4" ref="K5"/>
+    <hyperlink r:id="rId5" ref="J6"/>
+    <hyperlink r:id="rId6" ref="K6"/>
+    <hyperlink r:id="rId7" ref="J7"/>
+    <hyperlink r:id="rId8" ref="K7"/>
+    <hyperlink r:id="rId9" ref="J8"/>
+    <hyperlink r:id="rId10" ref="K8"/>
+    <hyperlink r:id="rId11" ref="J9"/>
+    <hyperlink r:id="rId12" ref="K9"/>
+    <hyperlink r:id="rId13" ref="J10"/>
+    <hyperlink r:id="rId14" ref="K10"/>
+    <hyperlink r:id="rId15" ref="J11"/>
+    <hyperlink r:id="rId16" ref="K11"/>
+    <hyperlink r:id="rId17" ref="J12"/>
+    <hyperlink r:id="rId18" ref="K12"/>
+    <hyperlink r:id="rId19" ref="J13"/>
+    <hyperlink r:id="rId20" ref="K13"/>
+    <hyperlink r:id="rId21" ref="J14"/>
+    <hyperlink r:id="rId22" ref="K14"/>
+    <hyperlink r:id="rId23" ref="J15"/>
+    <hyperlink r:id="rId24" ref="K15"/>
+    <hyperlink r:id="rId25" ref="J16"/>
+    <hyperlink r:id="rId26" ref="K16"/>
+    <hyperlink r:id="rId27" ref="N16"/>
+    <hyperlink r:id="rId28" ref="O16"/>
+    <hyperlink r:id="rId29" ref="P16"/>
+    <hyperlink r:id="rId30" ref="J17"/>
+    <hyperlink r:id="rId31" ref="K17"/>
+    <hyperlink r:id="rId32" ref="J18"/>
+    <hyperlink r:id="rId33" ref="K18"/>
+    <hyperlink r:id="rId34" ref="J19"/>
+    <hyperlink r:id="rId35" ref="J20"/>
   </hyperlinks>
   <drawing r:id="rId36"/>
-  <legacyDrawing r:id="rId37"/>
 </worksheet>
 </file>